--- a/Test Cases/Iteration 7/Iteration 7 Test Cases.xlsx
+++ b/Test Cases/Iteration 7/Iteration 7 Test Cases.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="163">
   <si>
     <t>No</t>
   </si>
@@ -749,6 +749,12 @@
   </si>
   <si>
     <t>Type are sorted in alphatical order (A - Z)</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>Display Client Profile</t>
   </si>
 </sst>
 </file>
@@ -3557,8 +3563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4252,13 +4258,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="10.08203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
@@ -4280,6 +4291,19 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Cases/Iteration 7/Iteration 7 Test Cases.xlsx
+++ b/Test Cases/Iteration 7/Iteration 7 Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="182">
   <si>
     <t>No</t>
   </si>
@@ -751,10 +751,67 @@
     <t>Type are sorted in alphatical order (A - Z)</t>
   </si>
   <si>
-    <t>Sort</t>
-  </si>
-  <si>
     <t>Display Client Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Clients </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Client Name Header to sort the names (ascending to descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Client Name Header to sort the names (descending to ascending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in ascending to descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in descending to ascending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Gender  to group clients base on gender  (ascending to descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Gender  to group clients base on gender  (descending to ascending order) </t>
+  </si>
+  <si>
+    <t>Click on Date of birth  sort the clients in ascending to descending order</t>
+  </si>
+  <si>
+    <t>Click on Date of birth sort the clients in descending to ascending order</t>
+  </si>
+  <si>
+    <t>Click on referred by to sort the referrals' name in descending to ascending order</t>
+  </si>
+  <si>
+    <t>Click on referred by to sort the referrals' name in ascending to descending order</t>
+  </si>
+  <si>
+    <t>Clients' name are sorted in ascending order (A-Z)</t>
+  </si>
+  <si>
+    <t>Clients' name are sorted in descending order (Z-A)</t>
+  </si>
+  <si>
+    <t>Nationality of clients are sorted in ascending order (A-Z)</t>
+  </si>
+  <si>
+    <t>Nationality of clients are sorted in descending order (Z-A)</t>
+  </si>
+  <si>
+    <t>Genders of clients are sorted in ascending order (Female - Infant - Male)</t>
+  </si>
+  <si>
+    <t>Genders of clients are sorted in descending order (Male - Infant - Female)</t>
+  </si>
+  <si>
+    <t>Clients are sorted base on date of birth</t>
+  </si>
+  <si>
+    <t>Referrals' name are sorted in ascending order (A-Z)</t>
+  </si>
+  <si>
+    <t>Referrals' name are sorted in descending order (Z-A)</t>
   </si>
 </sst>
 </file>
@@ -3563,8 +3620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4258,20 +4315,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="10.08203125" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="37.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4291,18 +4350,1584 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>162</v>
-      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Cases/Iteration 7/Iteration 7 Test Cases.xlsx
+++ b/Test Cases/Iteration 7/Iteration 7 Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="189">
   <si>
     <t>No</t>
   </si>
@@ -493,13 +493,6 @@
   <si>
     <t xml:space="preserve">Access the URL: viewscreenings.html 
 </t>
-  </si>
-  <si>
-    <t>Verify that screenings created in test cases 1 - 4 were shown 
-Hand Foot Mouth Disease, Cancers, Cancer, Chicken Pox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the 'Add Screenings' from the Screenings drop down list on the header  </t>
   </si>
   <si>
     <t xml:space="preserve">Edit Screening (Type: All) </t>
@@ -612,15 +605,6 @@
   <si>
     <t xml:space="preserve">Access the URL: viewscreenings.html
 Demographic: Infant 
-Age Group: 0 - 10 in drop down list  
-</t>
-  </si>
-  <si>
-    <t>The screening table should show screenings belonging to age group 0  or 1 year old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant 
 Age Group: 20 - 30 in drop down list  
 </t>
   </si>
@@ -702,116 +686,157 @@
     <t>Add Screenings (Type: Infant)</t>
   </si>
   <si>
+    <t xml:space="preserve">Sort Screenings (By Starting Age) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Starting Age Header to sort the age (ascending to descending order) </t>
+  </si>
+  <si>
+    <t>Age are sorted in ascending order starting from 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Starting Age Header to sort the age (descending to ascending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age are sorted in descending order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Screenings (By conditionName)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Condition Name Header to sort the names (ascending to descending order) </t>
+  </si>
+  <si>
+    <t>Condition names are sorted in alphatical order (A - Z)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Screenings (By screening)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Screening Header to sort the names (ascending to descending order) </t>
+  </si>
+  <si>
+    <t>Screenings are sorted in alphatical order (A - Z)</t>
+  </si>
+  <si>
+    <t>Sort Screenings (By type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Type Header to sort the names (ascending to descending order) </t>
+  </si>
+  <si>
+    <t>Type are sorted in alphatical order (A - Z)</t>
+  </si>
+  <si>
+    <t>Display Client Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Clients </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Client Name Header to sort the names (ascending to descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Client Name Header to sort the names (descending to ascending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in ascending to descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in descending to ascending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Gender  to group clients base on gender  (ascending to descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Gender  to group clients base on gender  (descending to ascending order) </t>
+  </si>
+  <si>
+    <t>Click on Date of birth  sort the clients in ascending to descending order</t>
+  </si>
+  <si>
+    <t>Click on Date of birth sort the clients in descending to ascending order</t>
+  </si>
+  <si>
+    <t>Click on referred by to sort the referrals' name in descending to ascending order</t>
+  </si>
+  <si>
+    <t>Click on referred by to sort the referrals' name in ascending to descending order</t>
+  </si>
+  <si>
+    <t>Clients' name are sorted in ascending order (A-Z)</t>
+  </si>
+  <si>
+    <t>Clients' name are sorted in descending order (Z-A)</t>
+  </si>
+  <si>
+    <t>Nationality of clients are sorted in ascending order (A-Z)</t>
+  </si>
+  <si>
+    <t>Nationality of clients are sorted in descending order (Z-A)</t>
+  </si>
+  <si>
+    <t>Genders of clients are sorted in ascending order (Female - Infant - Male)</t>
+  </si>
+  <si>
+    <t>Genders of clients are sorted in descending order (Male - Infant - Female)</t>
+  </si>
+  <si>
+    <t>Clients are sorted base on date of birth</t>
+  </si>
+  <si>
+    <t>Referrals' name are sorted in ascending order (A-Z)</t>
+  </si>
+  <si>
+    <t>Referrals' name are sorted in descending order (Z-A)</t>
+  </si>
+  <si>
+    <t>Verify that logged in user can access the link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the 'View Screenings' from the Screenings drop down list on the header  </t>
+  </si>
+  <si>
+    <t>Verify that logged in user can access the view screenings tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+Demographic: Infant 
+Age Group: 0 - 2
+</t>
+  </si>
+  <si>
+    <t>The screening table should show screenings belonging to age group 0  or 2 year old</t>
+  </si>
+  <si>
     <t>Age : 0
 Common illness:  Hepatitis B
-Recommended screening: BCG Vaccine
+Recommended screening:Hepatitis B-2nd Dose
 Demographic affected: Infant
 Regularity : 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Sort Screenings (By Starting Age) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Starting Age Header to sort the age (ascending to descending order) </t>
-  </si>
-  <si>
-    <t>Age are sorted in ascending order starting from 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Starting Age Header to sort the age (descending to ascending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age are sorted in descending order </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort Screenings (By conditionName)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Condition Name Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
-    <t>Condition names are sorted in alphatical order (A - Z)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort Screenings (By screening)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Screening Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
-    <t>Screenings are sorted in alphatical order (A - Z)</t>
-  </si>
-  <si>
-    <t>Sort Screenings (By type)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Type Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
-    <t>Type are sorted in alphatical order (A - Z)</t>
-  </si>
-  <si>
-    <t>Display Client Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort Clients </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Client Name Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Client Name Header to sort the names (descending to ascending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in ascending to descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in descending to ascending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Gender  to group clients base on gender  (ascending to descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Gender  to group clients base on gender  (descending to ascending order) </t>
-  </si>
-  <si>
-    <t>Click on Date of birth  sort the clients in ascending to descending order</t>
-  </si>
-  <si>
-    <t>Click on Date of birth sort the clients in descending to ascending order</t>
-  </si>
-  <si>
-    <t>Click on referred by to sort the referrals' name in descending to ascending order</t>
-  </si>
-  <si>
-    <t>Click on referred by to sort the referrals' name in ascending to descending order</t>
-  </si>
-  <si>
-    <t>Clients' name are sorted in ascending order (A-Z)</t>
-  </si>
-  <si>
-    <t>Clients' name are sorted in descending order (Z-A)</t>
-  </si>
-  <si>
-    <t>Nationality of clients are sorted in ascending order (A-Z)</t>
-  </si>
-  <si>
-    <t>Nationality of clients are sorted in descending order (Z-A)</t>
-  </si>
-  <si>
-    <t>Genders of clients are sorted in ascending order (Female - Infant - Male)</t>
-  </si>
-  <si>
-    <t>Genders of clients are sorted in descending order (Male - Infant - Female)</t>
-  </si>
-  <si>
-    <t>Clients are sorted base on date of birth</t>
-  </si>
-  <si>
-    <t>Referrals' name are sorted in ascending order (A-Z)</t>
-  </si>
-  <si>
-    <t>Referrals' name are sorted in descending order (Z-A)</t>
+    <t>Age : 1 month
+Common illness:  Hepatitis B
+Recommended screening: Hepatitis B-1st Dose
+Demographic affected: Infant
+Regularity : 0</t>
+  </si>
+  <si>
+    <t>Value specific validation</t>
+  </si>
+  <si>
+    <t>Access add screenings page, click 'Add'</t>
+  </si>
+  <si>
+    <t>Error message show to input empty fields</t>
+  </si>
+  <si>
+    <t>Access view screenings page, select Obesity screening for female and click 'Edit'
+Remove all values and click 'Update'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access view screenings page, click 'generate' </t>
   </si>
 </sst>
 </file>
@@ -1286,6 +1311,182 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3552995</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3715307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F3BD0A-9005-4424-83C0-F1B91E34818C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4540250" y="11633200"/>
+          <a:ext cx="3432345" cy="3499407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106458</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>223370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2576607</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2300541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E8A18DF-9A8A-4684-B278-E048D22634EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4526058" y="15450670"/>
+          <a:ext cx="2470149" cy="2077171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>208429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3552995</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3707836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1EE6D7-B08C-445D-96CD-58CF7017ACD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4540250" y="11625729"/>
+          <a:ext cx="3432345" cy="3499407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106458</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>230841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2576607</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2308012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F117D52-1001-4CC5-8F56-E979578507C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4526058" y="15458141"/>
+          <a:ext cx="2470149" cy="2077171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3618,10 +3819,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3743,7 +3944,7 @@
         <v>111</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -3759,10 +3960,10 @@
         <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -3775,13 +3976,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3797,10 +3998,10 @@
         <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -3813,13 +4014,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -3832,13 +4033,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -3857,7 +4058,7 @@
         <v>111</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -3870,13 +4071,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -3889,13 +4090,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -3908,13 +4109,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -3927,13 +4128,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3941,13 +4142,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
@@ -3955,13 +4156,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="93" x14ac:dyDescent="0.35">
@@ -3969,10 +4170,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>103</v>
@@ -3983,10 +4184,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>103</v>
@@ -3997,10 +4198,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>103</v>
@@ -4011,27 +4212,27 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -4039,41 +4240,41 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -4081,13 +4282,69 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4317,7 +4574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -4355,13 +4612,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -4370,13 +4627,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -4385,13 +4642,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -4400,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -4415,13 +4672,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -4430,13 +4687,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -4445,13 +4702,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -4460,13 +4717,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -4475,13 +4732,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -4490,13 +4747,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -4505,7 +4762,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>

--- a/Test Cases/Iteration 7/Iteration 7 Test Cases.xlsx
+++ b/Test Cases/Iteration 7/Iteration 7 Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="198">
   <si>
     <t>No</t>
   </si>
@@ -481,46 +481,314 @@
     <t xml:space="preserve">Add Screening (Type : Infant) </t>
   </si>
   <si>
-    <t>Age : 1
+    <t xml:space="preserve">View Screenings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html 
+</t>
+  </si>
+  <si>
+    <t>Success Message shown, screening details updated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that screening - Hand Foot Mouth Disease from Test Case 7 has been updated  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Screening </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Screening updated from Test Case 7 Age : 0
+Common illness:  Hand Foot Mouth Disease  
+Recommended screening:  - 
+Demographic affected: All
+Regularity : 0
+</t>
+  </si>
+  <si>
+    <t>Redirect back to View Screening webpage, 'Hand Foot Mouth Disease' not shown in the screening table, a message 'Screening successfully deleted.' shown</t>
+  </si>
+  <si>
+    <t>Add Screening : Wrong Age Group</t>
+  </si>
+  <si>
+    <t>Age : 9
+Common illness:  Fever
+Recommended screening:  - 
+Demographic affected: Infant, Female, Male
+Regularity : 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Message Shown (Infant cannot be above 1 years old) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure that Test Case 10 is not added in to the screenings table </t>
+  </si>
+  <si>
+    <t>View Screenings with Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+Demographic: Infant 
+Age Group: 20 - 30 in drop down list  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The screening table should show no result  / user not able to select any age in the drop down list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+Demographic: Male
+Age Group: 20 - 30 in drop down list  
+</t>
+  </si>
+  <si>
+    <t>The screening table should show screenings belonging to male, age group between 20 - 30 years old</t>
+  </si>
+  <si>
+    <t>View Clients Base on Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+Demographic: Male
+Age Group: 20 - 30 in drop down list  
+Illness: Cancers, Click 'View Client List' 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 Names should shown. 
+</t>
+  </si>
+  <si>
+    <t>6 Names should shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+Demographic: Infant
+Illness: Chicken Pox, Click 'View Client List' 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Screening updated from Test Case 4 
+Age : 1
+Common illness:  Chicken Pox  
+Recommended screening:  - 
+Demographic affected: Infant
+Regularity : 1 
+</t>
+  </si>
+  <si>
+    <t>Redirect back to View Screening webpage, 'Chicken Pox' not shown in the screening table, a message 'Screening successfully deleted.' shown</t>
+  </si>
+  <si>
+    <t>Add Screenings (Type: Men and Female)</t>
+  </si>
+  <si>
+    <t>Age : 18
+Common illness:  Obesity
+Recommended screening: BMI &amp; Waist Circumference 
+Demographic affected: Male and Female
+Regularity : 1</t>
+  </si>
+  <si>
+    <t>Age : 18
+Common illness:  Hypertension (High Blood Pressure) 
+Recommended screening: Blood Pressure Measurement 
+Demographic affected: Male and Female
+Regularity : 2</t>
+  </si>
+  <si>
+    <t>Add Screenings (Type: Female)</t>
+  </si>
+  <si>
+    <t>Age : 18
+Common illness:  Breast Cancer
+Recommended screening: Clinical Breast Exam 
+Demographic affected: Female
+Regularity : 3</t>
+  </si>
+  <si>
+    <t>Add Screenings (Type: Infant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Screenings (By Starting Age) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Starting Age Header to sort the age (ascending to descending order) </t>
+  </si>
+  <si>
+    <t>Age are sorted in ascending order starting from 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Starting Age Header to sort the age (descending to ascending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age are sorted in descending order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Screenings (By conditionName)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Condition Name Header to sort the names (ascending to descending order) </t>
+  </si>
+  <si>
+    <t>Condition names are sorted in alphatical order (A - Z)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Screenings (By screening)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Screening Header to sort the names (ascending to descending order) </t>
+  </si>
+  <si>
+    <t>Screenings are sorted in alphatical order (A - Z)</t>
+  </si>
+  <si>
+    <t>Sort Screenings (By type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Type Header to sort the names (ascending to descending order) </t>
+  </si>
+  <si>
+    <t>Type are sorted in alphatical order (A - Z)</t>
+  </si>
+  <si>
+    <t>Display Client Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Clients </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Client Name Header to sort the names (ascending to descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Client Name Header to sort the names (descending to ascending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in ascending to descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in descending to ascending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Gender  to group clients base on gender  (ascending to descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Gender  to group clients base on gender  (descending to ascending order) </t>
+  </si>
+  <si>
+    <t>Click on Date of birth  sort the clients in ascending to descending order</t>
+  </si>
+  <si>
+    <t>Click on Date of birth sort the clients in descending to ascending order</t>
+  </si>
+  <si>
+    <t>Click on referred by to sort the referrals' name in descending to ascending order</t>
+  </si>
+  <si>
+    <t>Click on referred by to sort the referrals' name in ascending to descending order</t>
+  </si>
+  <si>
+    <t>Clients' name are sorted in ascending order (A-Z)</t>
+  </si>
+  <si>
+    <t>Clients' name are sorted in descending order (Z-A)</t>
+  </si>
+  <si>
+    <t>Nationality of clients are sorted in ascending order (A-Z)</t>
+  </si>
+  <si>
+    <t>Nationality of clients are sorted in descending order (Z-A)</t>
+  </si>
+  <si>
+    <t>Genders of clients are sorted in ascending order (Female - Infant - Male)</t>
+  </si>
+  <si>
+    <t>Genders of clients are sorted in descending order (Male - Infant - Female)</t>
+  </si>
+  <si>
+    <t>Clients are sorted base on date of birth</t>
+  </si>
+  <si>
+    <t>Referrals' name are sorted in ascending order (A-Z)</t>
+  </si>
+  <si>
+    <t>Referrals' name are sorted in descending order (Z-A)</t>
+  </si>
+  <si>
+    <t>Verify that logged in user can access the link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the 'View Screenings' from the Screenings drop down list on the header  </t>
+  </si>
+  <si>
+    <t>Verify that logged in user can access the view screenings tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreenings.html
+Demographic: Infant 
+Age Group: 0 - 2
+</t>
+  </si>
+  <si>
+    <t>The screening table should show screenings belonging to age group 0  or 2 year old</t>
+  </si>
+  <si>
+    <t>Value specific validation</t>
+  </si>
+  <si>
+    <t>Access add screenings page, click 'Add'</t>
+  </si>
+  <si>
+    <t>Error message show to input empty fields</t>
+  </si>
+  <si>
+    <t>Access view screenings page, select Obesity screening for female and click 'Edit'
+Remove all values and click 'Update'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access view screenings page, click 'generate' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Client's Appointment </t>
+  </si>
+  <si>
+    <t>In appointment page, click on view appointments for Adrian Hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MainDiagnosis: US Emb 
+Appointment: 12/10/2015 10:30
+Doctor: Francis Wong Yoke Hae
+Speciality: Surgery - Orthopaedics 
+Clinic : Orthopaedics International
+MainDiagnosis: US Emb 
+Appointment: 13/10/2015 02:30
+Doctor: Vera Oh Boon Ngee
+Speciality: Paediatrics 
+Clinic : SBCC Baby &amp; Child Clinic Pte Ltd
+MainDiagnosis: US Emb 
+Appointment: 13/10/2015 09:30
+Doctor: Francis Fong Kee Siew
+Speciality: Surgery - Eye 
+Clinic: Eye Surgeons @ Novena
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age : 1 month 
 Common illness:  Chicken Pox
 Recommended screening:  - 
 Demographic affected: Infant
-Regularity : 1 Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View Screenings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Screening (Type: All) </t>
+Regularity : 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Screening (Type: Female) </t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Age : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">Age : 5
 Common illness:  Hand Foot Mouth Disease  
 Recommended screening:  Body Checkup
 Demographic affected: </t>
@@ -534,7 +802,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Infant, Female, Male</t>
+      <t>Female</t>
     </r>
     <r>
       <rPr>
@@ -560,283 +828,66 @@
     </r>
   </si>
   <si>
-    <t>Success Message shown, screening details updated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that screening - Hand Foot Mouth Disease from Test Case 7 has been updated  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Screening </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Screening updated from Test Case 7 Age : 0
-Common illness:  Hand Foot Mouth Disease  
-Recommended screening:  - 
-Demographic affected: All
-Regularity : 0
-</t>
-  </si>
-  <si>
-    <t>Redirect back to View Screening webpage, 'Hand Foot Mouth Disease' not shown in the screening table, a message 'Screening successfully deleted.' shown</t>
-  </si>
-  <si>
-    <t>Add Screening : Wrong Age Group</t>
-  </si>
-  <si>
-    <t>Age : 9
-Common illness:  Fever
-Recommended screening:  - 
-Demographic affected: Infant, Female, Male
-Regularity : 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error Message Shown (Infant cannot be above 1 years old) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure that Test Case 10 is not added in to the screenings table </t>
-  </si>
-  <si>
-    <t>View Screenings with Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant 
-Age Group: 20 - 30 in drop down list  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The screening table should show no result  / user not able to select any age in the drop down list </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Male
-Age Group: 20 - 30 in drop down list  
-</t>
-  </si>
-  <si>
-    <t>The screening table should show screenings belonging to male, age group between 20 - 30 years old</t>
-  </si>
-  <si>
-    <t>View Clients Base on Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Male
-Age Group: 20 - 30 in drop down list  
-Illness: Cancers, Click 'View Client List' 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59 Names should shown. 
-</t>
-  </si>
-  <si>
-    <t>6 Names should shown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant
-Illness: Chicken Pox, Click 'View Client List' 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Screening updated from Test Case 4 
-Age : 1
-Common illness:  Chicken Pox  
-Recommended screening:  - 
-Demographic affected: Infant
-Regularity : 1 
-</t>
-  </si>
-  <si>
-    <t>Redirect back to View Screening webpage, 'Chicken Pox' not shown in the screening table, a message 'Screening successfully deleted.' shown</t>
-  </si>
-  <si>
-    <t>Add Screenings (Type: Men and Female)</t>
-  </si>
-  <si>
-    <t>Age : 18
-Common illness:  Obesity
-Recommended screening: BMI &amp; Waist Circumference 
-Demographic affected: Male and Female
-Regularity : 1</t>
-  </si>
-  <si>
-    <t>Age : 18
-Common illness:  Hypertension (High Blood Pressure) 
-Recommended screening: Blood Pressure Measurement 
-Demographic affected: Male and Female
-Regularity : 2</t>
-  </si>
-  <si>
-    <t>Add Screenings (Type: Female)</t>
-  </si>
-  <si>
-    <t>Age : 18
-Common illness:  Breast Cancer
-Recommended screening: Clinical Breast Exam 
-Demographic affected: Female
-Regularity : 3</t>
-  </si>
-  <si>
-    <t>Add Screenings (Type: Infant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort Screenings (By Starting Age) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Starting Age Header to sort the age (ascending to descending order) </t>
-  </si>
-  <si>
-    <t>Age are sorted in ascending order starting from 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Starting Age Header to sort the age (descending to ascending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age are sorted in descending order </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort Screenings (By conditionName)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Condition Name Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
-    <t>Condition names are sorted in alphatical order (A - Z)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort Screenings (By screening)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Screening Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
-    <t>Screenings are sorted in alphatical order (A - Z)</t>
-  </si>
-  <si>
-    <t>Sort Screenings (By type)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Type Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
-    <t>Type are sorted in alphatical order (A - Z)</t>
-  </si>
-  <si>
-    <t>Display Client Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort Clients </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Client Name Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Client Name Header to sort the names (descending to ascending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in ascending to descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in descending to ascending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Gender  to group clients base on gender  (ascending to descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Gender  to group clients base on gender  (descending to ascending order) </t>
-  </si>
-  <si>
-    <t>Click on Date of birth  sort the clients in ascending to descending order</t>
-  </si>
-  <si>
-    <t>Click on Date of birth sort the clients in descending to ascending order</t>
-  </si>
-  <si>
-    <t>Click on referred by to sort the referrals' name in descending to ascending order</t>
-  </si>
-  <si>
-    <t>Click on referred by to sort the referrals' name in ascending to descending order</t>
-  </si>
-  <si>
-    <t>Clients' name are sorted in ascending order (A-Z)</t>
-  </si>
-  <si>
-    <t>Clients' name are sorted in descending order (Z-A)</t>
-  </si>
-  <si>
-    <t>Nationality of clients are sorted in ascending order (A-Z)</t>
-  </si>
-  <si>
-    <t>Nationality of clients are sorted in descending order (Z-A)</t>
-  </si>
-  <si>
-    <t>Genders of clients are sorted in ascending order (Female - Infant - Male)</t>
-  </si>
-  <si>
-    <t>Genders of clients are sorted in descending order (Male - Infant - Female)</t>
-  </si>
-  <si>
-    <t>Clients are sorted base on date of birth</t>
-  </si>
-  <si>
-    <t>Referrals' name are sorted in ascending order (A-Z)</t>
-  </si>
-  <si>
-    <t>Referrals' name are sorted in descending order (Z-A)</t>
-  </si>
-  <si>
-    <t>Verify that logged in user can access the link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the 'View Screenings' from the Screenings drop down list on the header  </t>
-  </si>
-  <si>
-    <t>Verify that logged in user can access the view screenings tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant 
-Age Group: 0 - 2
-</t>
-  </si>
-  <si>
-    <t>The screening table should show screenings belonging to age group 0  or 2 year old</t>
-  </si>
-  <si>
-    <t>Age : 0
+    <t>Age : 1 month
 Common illness:  Hepatitis B
 Recommended screening:Hepatitis B-2nd Dose
 Demographic affected: Infant
 Regularity : 0</t>
   </si>
   <si>
-    <t>Age : 1 month
+    <t>Age : 0 month
 Common illness:  Hepatitis B
 Recommended screening: Hepatitis B-1st Dose
 Demographic affected: Infant
 Regularity : 0</t>
   </si>
   <si>
-    <t>Value specific validation</t>
-  </si>
-  <si>
-    <t>Access add screenings page, click 'Add'</t>
-  </si>
-  <si>
-    <t>Error message show to input empty fields</t>
-  </si>
-  <si>
-    <t>Access view screenings page, select Obesity screening for female and click 'Edit'
-Remove all values and click 'Update'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access view screenings page, click 'generate' </t>
+    <t>Search for client name Adrian Hall</t>
+  </si>
+  <si>
+    <t>Search for client name Acep Dani Nuraeni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Name: Adrian Hall
+Client Owner: Medical1
+Nationality: American
+Gender: Male
+DOB: 03/11/2001
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Name: Acep Dani Nuraeni
+Client Owner: Medical1
+Nationality: Indonesian
+Gender: Male
+DOB: 15/06/1982
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MainDiagnosis: IndoMed
+Appointment: 01/10/2015 02:00
+Doctor: Francis Ho Siew Hong
+Speciality: Surgery - Urology
+Clinic : S H Ho Urology And Laparoscopy Centre
+MainDiagnosis: IndoMed 
+Appointment: 22/02/2016 02:45
+Doctor: Dede Selamat Sutedja 
+Speciality: Medicine - Gastroenterology
+Clinic : The Singapore Gastro Liver Internist Centre
+MainDiagnosis: IndoMed
+Appointment: 23/02/2016 02:45
+Doctor: Chan Hsiang Sui
+Speciality: Surgery - General 
+Clinic: H S Chan Surgery Pte Ltd
+MainDiagnosis: IndoMed
+Appointment: 25/10/2016 15:00
+Doctor: Dede Selamat Sutedja 
+Speciality: Medicine - Gastroenterology
+Clinic: The Singapore Gastro LIver Internist Centre
+</t>
+  </si>
+  <si>
+    <t>In appointment page, click on view appointments for Acep Dani Nuraeni</t>
   </si>
 </sst>
 </file>
@@ -1487,6 +1538,182 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3552995</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3715307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8315B0CE-6E5E-4266-B46F-873FF0776174}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4540250" y="11633200"/>
+          <a:ext cx="3432345" cy="3499407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106458</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>223370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2576607</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2300541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0DE50C-840D-488E-B7DE-71B05BC2E5EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4526058" y="15450670"/>
+          <a:ext cx="2470149" cy="2077171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>208429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3552995</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3707836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53108CB3-9697-4BA2-9677-1983C68560A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4540250" y="11625729"/>
+          <a:ext cx="3432345" cy="3499407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>106458</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>230841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2576607</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2308012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F319CC-360D-4A0C-BC0A-BE437B1B45F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4526058" y="15458141"/>
+          <a:ext cx="2470149" cy="2077171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3821,8 +4048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D35"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3922,7 +4149,7 @@
         <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>103</v>
@@ -3938,13 +4165,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -3957,13 +4184,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -3976,13 +4203,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3995,13 +4222,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -4014,13 +4241,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -4033,13 +4260,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -4052,13 +4279,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -4071,13 +4298,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -4090,13 +4317,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -4109,13 +4336,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -4128,13 +4355,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4142,13 +4369,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
@@ -4156,13 +4383,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="93" x14ac:dyDescent="0.35">
@@ -4170,10 +4397,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>103</v>
@@ -4184,10 +4411,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>103</v>
@@ -4198,10 +4425,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>103</v>
@@ -4212,10 +4439,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>103</v>
@@ -4226,10 +4453,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>103</v>
@@ -4240,13 +4467,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -4254,13 +4481,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
@@ -4268,13 +4495,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -4282,13 +4509,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -4296,13 +4523,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -4310,13 +4537,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
@@ -4324,13 +4551,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -4338,13 +4565,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4574,8 +4801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4612,13 +4839,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -4627,13 +4854,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -4642,13 +4869,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -4657,13 +4884,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -4672,13 +4899,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -4687,13 +4914,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -4702,13 +4929,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -4717,13 +4944,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -4732,13 +4959,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -4747,49 +4974,80 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="93" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+    <row r="13" spans="1:6" ht="279" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+    <row r="14" spans="1:6" ht="93" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+    <row r="15" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>

--- a/Test Cases/Iteration 7/Iteration 7 Test Cases.xlsx
+++ b/Test Cases/Iteration 7/Iteration 7 Test Cases.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="206">
   <si>
     <t>No</t>
   </si>
@@ -662,36 +662,6 @@
     <t xml:space="preserve">Sort Clients </t>
   </si>
   <si>
-    <t xml:space="preserve">Click on Client Name Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Client Name Header to sort the names (descending to ascending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in ascending to descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in descending to ascending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Gender  to group clients base on gender  (ascending to descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Gender  to group clients base on gender  (descending to ascending order) </t>
-  </si>
-  <si>
-    <t>Click on Date of birth  sort the clients in ascending to descending order</t>
-  </si>
-  <si>
-    <t>Click on Date of birth sort the clients in descending to ascending order</t>
-  </si>
-  <si>
-    <t>Click on referred by to sort the referrals' name in descending to ascending order</t>
-  </si>
-  <si>
-    <t>Click on referred by to sort the referrals' name in ascending to descending order</t>
-  </si>
-  <si>
     <t>Clients' name are sorted in ascending order (A-Z)</t>
   </si>
   <si>
@@ -757,24 +727,6 @@
   </si>
   <si>
     <t>In appointment page, click on view appointments for Adrian Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MainDiagnosis: US Emb 
-Appointment: 12/10/2015 10:30
-Doctor: Francis Wong Yoke Hae
-Speciality: Surgery - Orthopaedics 
-Clinic : Orthopaedics International
-MainDiagnosis: US Emb 
-Appointment: 13/10/2015 02:30
-Doctor: Vera Oh Boon Ngee
-Speciality: Paediatrics 
-Clinic : SBCC Baby &amp; Child Clinic Pte Ltd
-MainDiagnosis: US Emb 
-Appointment: 13/10/2015 09:30
-Doctor: Francis Fong Kee Siew
-Speciality: Surgery - Eye 
-Clinic: Eye Surgeons @ Novena
-</t>
   </si>
   <si>
     <t xml:space="preserve">Age : 1 month 
@@ -848,46 +800,133 @@
     <t>Search for client name Acep Dani Nuraeni</t>
   </si>
   <si>
+    <t>In appointment page, click on view appointments for Acep Dani Nuraeni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MainDiagnosis: US Emb 
+Appointment: 12/10/2015 10:30
+Doctor: Francis Wong Yoke Hae
+Speciality: Surgery - Orthopaedics 
+Clinic : Orthopaedics International
+Hospital Admitted: - 
+MainDiagnosis: US Emb 
+Appointment: 13/10/2015 02:30
+Doctor: Vera Oh Boon Ngee
+Speciality: Paediatrics 
+Clinic : SBCC Baby &amp; Child Clinic Pte Ltd
+Hospital Admitted: -
+MainDiagnosis: US Emb 
+Appointment: 13/10/2015 09:30
+Doctor: Francis Fong Kee Siew
+Speciality: Surgery - Eye 
+Clinic: Eye Surgeons @ Novena
+Hospital Admitted: -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MainDiagnosis: IndoMed
+Appointment: 01/10/2015 02:00
+Doctor: Ho Siew Hong
+Speciality: Surgery - Urology
+Clinic : S H Ho Urology And Laparoscopy Centre
+Hospital Admitted: - 
+MainDiagnosis: IndoMed 
+Appointment: 22/02/2016 02:45
+Doctor: Dede Selamat Sutedja 
+Speciality: Medicine - Gastroenterology
+Clinic : The Singapore Gastro Liver Internist Centre
+Hospital Admitted: Gleneagles Hospital
+MainDiagnosis: IndoMed
+Appointment: 23/02/2016 02:45
+Doctor: Chan Hsiang Sui
+Speciality: Surgery - General 
+Clinic: H S Chan Surgery Pte Ltd
+Hospital Admitted: Gleneagles Hospital
+MainDiagnosis: IndoMed
+Appointment: 25/10/2016 15:00
+Doctor: Dede Selamat Sutedja 
+Speciality: Medicine - Gastroenterology
+Clinic: The Singapore Gastro LIver Internist Centre
+Hospital Admitted: - 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Client Name Header to sort the names (ascending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Client Name Header to sort the names (descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in ascending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Gender  to group clients base on gender  (ascending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Gender  to group clients base on gender  (descending order) </t>
+  </si>
+  <si>
+    <t>Click on Date of birth  sort the clients in ascending order</t>
+  </si>
+  <si>
+    <t>Click on Date of birth sort the clients in descending  order</t>
+  </si>
+  <si>
+    <t>Click on referred by to sort the referrals' name in ascending order</t>
+  </si>
+  <si>
+    <t>Click on referred by to sort the referrals' name in descending order</t>
+  </si>
+  <si>
+    <t>Click on Client Type to sort the client's type in ascending order</t>
+  </si>
+  <si>
+    <t>Clients are sorted base on Client type in ascending order (Employee - Individual)</t>
+  </si>
+  <si>
+    <t>Click on Client Type to sort the client's type in descending order</t>
+  </si>
+  <si>
+    <t>Clients are sorted base on Client type in descending order (Individual - Employee)</t>
+  </si>
+  <si>
+    <t>Click on Visa/Medical to sort client base on type ( Visa  - Medical )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clients are sorted in ascending order (Medical - Visa) </t>
+  </si>
+  <si>
+    <t>Click on Visa/Medical to sort client base on type ( Medical - Visa )</t>
+  </si>
+  <si>
+    <t>Clients are sorted in descending order (Visa - Medical)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Client Name: Adrian Hall
 Client Owner: Medical1
 Nationality: American
 Gender: Male
 DOB: 03/11/2001
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Name: Acep Dani Nuraeni
+Age: 15
+Company: - 
+Email: Adrain Hall@hotmail.com
+Person-in-Charge: Zin
+Referred by: US Emb </t>
+  </si>
+  <si>
+    <t>Client Name: Acep Dani Nuraeni
 Client Owner: Medical1
 Nationality: Indonesian
 Gender: Male
 DOB: 15/06/1982
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MainDiagnosis: IndoMed
-Appointment: 01/10/2015 02:00
-Doctor: Francis Ho Siew Hong
-Speciality: Surgery - Urology
-Clinic : S H Ho Urology And Laparoscopy Centre
-MainDiagnosis: IndoMed 
-Appointment: 22/02/2016 02:45
-Doctor: Dede Selamat Sutedja 
-Speciality: Medicine - Gastroenterology
-Clinic : The Singapore Gastro Liver Internist Centre
-MainDiagnosis: IndoMed
-Appointment: 23/02/2016 02:45
-Doctor: Chan Hsiang Sui
-Speciality: Surgery - General 
-Clinic: H S Chan Surgery Pte Ltd
-MainDiagnosis: IndoMed
-Appointment: 25/10/2016 15:00
-Doctor: Dede Selamat Sutedja 
-Speciality: Medicine - Gastroenterology
-Clinic: The Singapore Gastro LIver Internist Centre
-</t>
-  </si>
-  <si>
-    <t>In appointment page, click on view appointments for Acep Dani Nuraeni</t>
+Age: 34
+Company:  
+Email: Acep Dani Nuraeni @hotmail.com
+Person-in-Charge: Zin
+Referred by: IndoMed</t>
   </si>
 </sst>
 </file>
@@ -4149,7 +4188,7 @@
         <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>103</v>
@@ -4171,7 +4210,7 @@
         <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -4187,10 +4226,10 @@
         <v>109</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -4203,10 +4242,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>111</v>
@@ -4301,10 +4340,10 @@
         <v>121</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -4442,7 +4481,7 @@
         <v>138</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>103</v>
@@ -4456,7 +4495,7 @@
         <v>138</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>103</v>
@@ -4537,13 +4576,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
@@ -4551,13 +4590,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -4565,13 +4604,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4801,8 +4840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4842,10 +4881,10 @@
         <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -4857,14 +4896,14 @@
         <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4872,14 +4911,14 @@
         <v>154</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4887,10 +4926,10 @@
         <v>154</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -4902,10 +4941,10 @@
         <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -4917,10 +4956,10 @@
         <v>154</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -4932,10 +4971,10 @@
         <v>154</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -4947,10 +4986,10 @@
         <v>154</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -4962,10 +5001,10 @@
         <v>154</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -4977,172 +5016,205 @@
         <v>154</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="93" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="279" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="93" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="155" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+    <row r="17" spans="1:5" ht="325.5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+    <row r="18" spans="1:5" ht="155" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>

--- a/Test Cases/Iteration 7/Iteration 7 Test Cases.xlsx
+++ b/Test Cases/Iteration 7/Iteration 7 Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="194">
   <si>
     <t>No</t>
   </si>
@@ -255,11 +255,6 @@
     <t>testing2.csv</t>
   </si>
   <si>
-    <t>"File successfully updated" shown
-200 Records loaded into database
-Timestamp updated to current time</t>
-  </si>
-  <si>
     <t xml:space="preserve">Upload Correct File Format </t>
   </si>
   <si>
@@ -666,27 +661,6 @@
   </si>
   <si>
     <t>Clients' name are sorted in descending order (Z-A)</t>
-  </si>
-  <si>
-    <t>Nationality of clients are sorted in ascending order (A-Z)</t>
-  </si>
-  <si>
-    <t>Nationality of clients are sorted in descending order (Z-A)</t>
-  </si>
-  <si>
-    <t>Genders of clients are sorted in ascending order (Female - Infant - Male)</t>
-  </si>
-  <si>
-    <t>Genders of clients are sorted in descending order (Male - Infant - Female)</t>
-  </si>
-  <si>
-    <t>Clients are sorted base on date of birth</t>
-  </si>
-  <si>
-    <t>Referrals' name are sorted in ascending order (A-Z)</t>
-  </si>
-  <si>
-    <t>Referrals' name are sorted in descending order (Z-A)</t>
   </si>
   <si>
     <t>Verify that logged in user can access the link</t>
@@ -857,30 +831,6 @@
     <t xml:space="preserve">Click on Client Name Header to sort the names (descending order) </t>
   </si>
   <si>
-    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in ascending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Nationality  to group clients base on nationality (nationality in descending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Gender  to group clients base on gender  (ascending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Gender  to group clients base on gender  (descending order) </t>
-  </si>
-  <si>
-    <t>Click on Date of birth  sort the clients in ascending order</t>
-  </si>
-  <si>
-    <t>Click on Date of birth sort the clients in descending  order</t>
-  </si>
-  <si>
-    <t>Click on referred by to sort the referrals' name in ascending order</t>
-  </si>
-  <si>
-    <t>Click on referred by to sort the referrals' name in descending order</t>
-  </si>
-  <si>
     <t>Click on Client Type to sort the client's type in ascending order</t>
   </si>
   <si>
@@ -927,6 +877,19 @@
 Email: Acep Dani Nuraeni @hotmail.com
 Person-in-Charge: Zin
 Referred by: IndoMed</t>
+  </si>
+  <si>
+    <t>Upload Correct File Format - Header Names are Wrong</t>
+  </si>
+  <si>
+    <t>testing0.1.xls</t>
+  </si>
+  <si>
+    <t>"Wrong File Format" shown
+Timestamp should not be updated to current time</t>
+  </si>
+  <si>
+    <t>Data not relevant or related message shown</t>
   </si>
 </sst>
 </file>
@@ -2338,7 +2301,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="4"/>
     </row>
@@ -2356,7 +2319,7 @@
         <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -2372,10 +2335,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2394,10 +2357,10 @@
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2460,7 +2423,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
@@ -2482,7 +2445,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>15</v>
@@ -2504,7 +2467,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -2526,7 +2489,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -2548,7 +2511,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -2570,7 +2533,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -2592,7 +2555,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
@@ -2614,7 +2577,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>23</v>
@@ -2636,7 +2599,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>25</v>
@@ -2658,7 +2621,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>25</v>
@@ -2680,7 +2643,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
@@ -2696,13 +2659,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>33</v>
@@ -2718,13 +2681,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>34</v>
@@ -2746,7 +2709,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>38</v>
@@ -2768,7 +2731,7 @@
         <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>38</v>
@@ -2806,16 +2769,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2828,16 +2791,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2850,16 +2813,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2872,16 +2835,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2894,16 +2857,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -4128,13 +4091,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="2"/>
@@ -4147,13 +4110,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -4166,13 +4129,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -4185,13 +4148,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -4204,13 +4167,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -4223,13 +4186,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -4242,13 +4205,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -4261,13 +4224,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -4280,13 +4243,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -4299,13 +4262,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -4318,13 +4281,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -4337,13 +4300,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -4356,13 +4319,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -4375,13 +4338,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -4394,13 +4357,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4408,13 +4371,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
@@ -4422,13 +4385,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="93" x14ac:dyDescent="0.35">
@@ -4436,13 +4399,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
@@ -4450,13 +4413,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
@@ -4464,13 +4427,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
@@ -4478,13 +4441,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
@@ -4492,13 +4455,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -4506,13 +4469,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -4520,13 +4483,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
@@ -4534,13 +4497,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -4548,13 +4511,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -4562,13 +4525,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -4576,13 +4539,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
@@ -4590,13 +4553,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -4604,13 +4567,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4621,16 +4584,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.9140625" customWidth="1"/>
     <col min="4" max="4" width="36.83203125" customWidth="1"/>
     <col min="5" max="5" width="48.1640625" customWidth="1"/>
   </cols>
@@ -4762,7 +4726,7 @@
         <v>61</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -4772,13 +4736,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -4788,13 +4752,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -4804,13 +4768,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -4820,16 +4784,30 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4840,8 +4818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:D19"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4878,13 +4856,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -4893,13 +4871,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -4908,13 +4886,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -4923,13 +4901,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -4938,13 +4916,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -4953,198 +4931,131 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="155" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="325.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>197</v>
-      </c>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>199</v>
-      </c>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>201</v>
-      </c>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>203</v>
-      </c>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="155" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>204</v>
-      </c>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="325.5" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>184</v>
-      </c>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="155" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>205</v>
-      </c>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>185</v>
-      </c>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -5192,6 +5103,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -6468,52 +6380,28 @@
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E241" s="2"/>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E242" s="2"/>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E243" s="2"/>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E244" s="2"/>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E245" s="2"/>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E246" s="2"/>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E247" s="2"/>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E248" s="2"/>
     </row>
   </sheetData>

--- a/Test Cases/Iteration 7/Iteration 7 Test Cases.xlsx
+++ b/Test Cases/Iteration 7/Iteration 7 Test Cases.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shu Yan\Desktop\Ulink\Test Cases\Iteration 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teh Kaixin\Desktop\FYP-GIT\Ulink\Test Cases\Iteration 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1420" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="4875" yWindow="1425" windowWidth="25515" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
-    <sheet name="Login &amp; Account Management" sheetId="21" r:id="rId2"/>
-    <sheet name="Screenings" sheetId="23" r:id="rId3"/>
-    <sheet name="Bootstrap" sheetId="22" r:id="rId4"/>
-    <sheet name="Clients" sheetId="24" r:id="rId5"/>
+    <sheet name="7-Bootstrap" sheetId="22" r:id="rId2"/>
+    <sheet name="7-Clients" sheetId="24" r:id="rId3"/>
+    <sheet name="6-Screenings" sheetId="23" r:id="rId4"/>
+    <sheet name="3-Login &amp; Account Management" sheetId="21" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="188">
   <si>
     <t>No</t>
   </si>
@@ -523,50 +523,6 @@
     <t xml:space="preserve">Ensure that Test Case 10 is not added in to the screenings table </t>
   </si>
   <si>
-    <t>View Screenings with Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant 
-Age Group: 20 - 30 in drop down list  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The screening table should show no result  / user not able to select any age in the drop down list </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Male
-Age Group: 20 - 30 in drop down list  
-</t>
-  </si>
-  <si>
-    <t>The screening table should show screenings belonging to male, age group between 20 - 30 years old</t>
-  </si>
-  <si>
-    <t>View Clients Base on Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Male
-Age Group: 20 - 30 in drop down list  
-Illness: Cancers, Click 'View Client List' 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59 Names should shown. 
-</t>
-  </si>
-  <si>
-    <t>6 Names should shown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant
-Illness: Chicken Pox, Click 'View Client List' 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Delete Screening updated from Test Case 4 
 Age : 1
 Common illness:  Chicken Pox  
@@ -670,15 +626,6 @@
   </si>
   <si>
     <t>Verify that logged in user can access the view screenings tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-Demographic: Infant 
-Age Group: 0 - 2
-</t>
-  </si>
-  <si>
-    <t>The screening table should show screenings belonging to age group 0  or 2 year old</t>
   </si>
   <si>
     <t>Value specific validation</t>
@@ -890,6 +837,24 @@
   </si>
   <si>
     <t>Data not relevant or related message shown</t>
+  </si>
+  <si>
+    <t>Upload File with existing record in database</t>
+  </si>
+  <si>
+    <t>Upload testing 7 then upload testing 8</t>
+  </si>
+  <si>
+    <t>Should not have duplicated records in database</t>
+  </si>
+  <si>
+    <t>Upload File with correct headers not in sequence</t>
+  </si>
+  <si>
+    <t>Upload Testing9(sequence)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be uploaded in database accordingly. </t>
   </si>
 </sst>
 </file>
@@ -1016,14 +981,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3715307</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>899642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1060,14 +1025,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>223370</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2300541</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>676435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1104,14 +1069,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3715307</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>899642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1148,14 +1113,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>223370</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2300541</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>676435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1192,14 +1157,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3715307</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>899642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1236,14 +1201,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>223370</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2300541</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>676435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1280,14 +1245,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3715307</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>899642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1324,14 +1289,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>223370</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2300541</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>676435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1368,14 +1333,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3715307</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>899642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1412,14 +1377,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>223370</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2300541</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>676435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1456,14 +1421,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>208429</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3707836</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>899642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1500,14 +1465,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>230841</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2308012</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>676435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1544,14 +1509,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3715307</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>899642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1588,14 +1553,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>223370</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2300541</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>676435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1632,14 +1597,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>208429</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>3707836</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>899642</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1676,14 +1641,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>230841</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2308012</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>676435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1988,16 +1953,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="12.6640625" customWidth="1"/>
+    <col min="5" max="6" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2017,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2037,7 +2002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2057,7 +2022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2065,7 +2030,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2073,7 +2038,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2081,7 +2046,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2089,7 +2054,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2097,7 +2062,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2105,7 +2070,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2113,7 +2078,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2121,7 +2086,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2129,7 +2094,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2137,7 +2102,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2145,7 +2110,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2153,7 +2118,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2161,7 +2126,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2169,7 +2134,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2177,7 +2142,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2185,7 +2150,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2193,7 +2158,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2201,7 +2166,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2209,7 +2174,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2217,7 +2182,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2225,7 +2190,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2233,7 +2198,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2248,23 +2213,2331 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="36.875" customWidth="1"/>
+    <col min="5" max="5" width="48.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F248"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="37.125" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="330.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E241" s="2"/>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E242" s="2"/>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E243" s="2"/>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E244" s="2"/>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E245" s="2"/>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E246" s="2"/>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E247" s="2"/>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E248" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="4" max="4" width="57" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection sqref="A1:G28"/>
+    <sheetView topLeftCell="A25" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="45.625" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2287,7 +4560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2305,7 +4578,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2324,7 +4597,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2346,7 +4619,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2368,7 +4641,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2390,7 +4663,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2412,7 +4685,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2434,7 +4707,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2456,7 +4729,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2478,7 +4751,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2500,7 +4773,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2522,7 +4795,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2544,7 +4817,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2566,7 +4839,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2588,7 +4861,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="93" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2610,7 +4883,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="124" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2632,7 +4905,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2654,7 +4927,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2676,7 +4949,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2698,7 +4971,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2720,7 +4993,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2742,7 +5015,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2764,7 +5037,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2786,7 +5059,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2808,7 +5081,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2830,7 +5103,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="62" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -2852,7 +5125,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="93" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -2874,7 +5147,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="2"/>
@@ -2886,7 +5159,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="2"/>
@@ -2898,7 +5171,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="2"/>
@@ -2910,7 +5183,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="2"/>
@@ -2922,7 +5195,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="2"/>
@@ -2934,7 +5207,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="2"/>
@@ -2946,7 +5219,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="2"/>
@@ -2958,7 +5231,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="2"/>
@@ -2970,7 +5243,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="2"/>
@@ -2982,7 +5255,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="2"/>
@@ -2994,7 +5267,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="2"/>
@@ -3006,7 +5279,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="2"/>
@@ -3018,7 +5291,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="2"/>
@@ -3030,7 +5303,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="2"/>
@@ -3042,7 +5315,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="2"/>
@@ -3054,7 +5327,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="2"/>
@@ -3066,7 +5339,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="2"/>
@@ -3078,7 +5351,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="2"/>
@@ -3090,7 +5363,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="2"/>
@@ -3102,7 +5375,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="2"/>
@@ -3114,7 +5387,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="2"/>
@@ -3126,7 +5399,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="2"/>
@@ -3138,7 +5411,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="2"/>
@@ -3150,7 +5423,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="2"/>
@@ -3162,7 +5435,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="2"/>
@@ -3174,7 +5447,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="5"/>
@@ -3185,7 +5458,7 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="5"/>
@@ -3196,7 +5469,7 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="5"/>
@@ -3207,7 +5480,7 @@
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="5"/>
@@ -3218,7 +5491,7 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="5"/>
@@ -3229,7 +5502,7 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="5"/>
@@ -3240,7 +5513,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="5"/>
@@ -3251,7 +5524,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="5"/>
@@ -3262,7 +5535,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="5"/>
@@ -3273,7 +5546,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="5"/>
@@ -3284,7 +5557,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="5"/>
@@ -3295,7 +5568,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="5"/>
@@ -3306,7 +5579,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="5"/>
@@ -3317,7 +5590,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="5"/>
@@ -3328,7 +5601,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="5"/>
@@ -3339,7 +5612,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="5"/>
@@ -3350,7 +5623,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="5"/>
@@ -3361,7 +5634,7 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="5"/>
@@ -3372,7 +5645,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="5"/>
@@ -3383,7 +5656,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="5"/>
@@ -3394,7 +5667,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="5"/>
@@ -3405,7 +5678,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="5"/>
@@ -3416,7 +5689,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="5"/>
@@ -3427,7 +5700,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="5"/>
@@ -3438,7 +5711,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="5"/>
@@ -3449,7 +5722,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="5"/>
@@ -3460,7 +5733,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="5"/>
@@ -3471,7 +5744,7 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="5"/>
@@ -3482,7 +5755,7 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="5"/>
@@ -3493,7 +5766,7 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="5"/>
@@ -3504,7 +5777,7 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="5"/>
@@ -3515,7 +5788,7 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="5"/>
@@ -3526,7 +5799,7 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="5"/>
@@ -3537,7 +5810,7 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="5"/>
@@ -3548,7 +5821,7 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="5"/>
@@ -3559,7 +5832,7 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="5"/>
@@ -3570,7 +5843,7 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="5"/>
@@ -3581,7 +5854,7 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="5"/>
@@ -3592,7 +5865,7 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="5"/>
@@ -3603,7 +5876,7 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="5"/>
@@ -3614,7 +5887,7 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="5"/>
@@ -3625,7 +5898,7 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="5"/>
@@ -3636,7 +5909,7 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="5"/>
@@ -3647,7 +5920,7 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="5"/>
@@ -3658,7 +5931,7 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="5"/>
@@ -3669,7 +5942,7 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="5"/>
@@ -3680,7 +5953,7 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="5"/>
@@ -3691,7 +5964,7 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="5"/>
@@ -3702,7 +5975,7 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="5"/>
@@ -3713,7 +5986,7 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="5"/>
@@ -3724,7 +5997,7 @@
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="5"/>
@@ -3735,7 +6008,7 @@
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="5"/>
@@ -3746,7 +6019,7 @@
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="5"/>
@@ -3757,7 +6030,7 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="5"/>
@@ -3768,7 +6041,7 @@
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="5"/>
@@ -3779,7 +6052,7 @@
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="5"/>
@@ -3790,7 +6063,7 @@
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="5"/>
@@ -3801,7 +6074,7 @@
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="5"/>
@@ -3812,7 +6085,7 @@
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="5"/>
@@ -3823,7 +6096,7 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="5"/>
@@ -3834,7 +6107,7 @@
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="5"/>
@@ -3845,7 +6118,7 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="5"/>
@@ -3856,7 +6129,7 @@
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="5"/>
@@ -3867,7 +6140,7 @@
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="5"/>
@@ -3878,7 +6151,7 @@
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="5"/>
@@ -3889,7 +6162,7 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="5"/>
@@ -3900,7 +6173,7 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="5"/>
@@ -3911,7 +6184,7 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="5"/>
@@ -3922,7 +6195,7 @@
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="5"/>
@@ -3933,7 +6206,7 @@
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="5"/>
@@ -3944,7 +6217,7 @@
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="5"/>
@@ -3955,7 +6228,7 @@
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="5"/>
@@ -3966,7 +6239,7 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="5"/>
@@ -3977,7 +6250,7 @@
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="5"/>
@@ -3988,7 +6261,7 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="5"/>
@@ -3999,7 +6272,7 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="5"/>
@@ -4010,7 +6283,7 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="5"/>
@@ -4021,7 +6294,7 @@
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="5"/>
@@ -4032,7 +6305,7 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -4044,2367 +6317,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" customWidth="1"/>
-    <col min="4" max="4" width="57" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" ht="62" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" ht="62" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" ht="62" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" ht="300" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="93" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.9140625" customWidth="1"/>
-    <col min="4" max="4" width="36.83203125" customWidth="1"/>
-    <col min="5" max="5" width="48.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F248"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="39.5" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.9140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="155" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="325.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="155" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2"/>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2"/>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-      <c r="E206" s="2"/>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="2"/>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="2"/>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-      <c r="E212" s="2"/>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-      <c r="E215" s="2"/>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-      <c r="E221" s="2"/>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-    </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-    </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-    </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-    </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-    </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-    </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-    </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-    </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-    </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-    </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-    </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-    </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-    </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E241" s="2"/>
-    </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E242" s="2"/>
-    </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E243" s="2"/>
-    </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E244" s="2"/>
-    </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E245" s="2"/>
-    </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E246" s="2"/>
-    </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E247" s="2"/>
-    </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E248" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Test Cases/Iteration 7/Iteration 7 Test Cases.xlsx
+++ b/Test Cases/Iteration 7/Iteration 7 Test Cases.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teh Kaixin\Desktop\FYP-GIT\Ulink\Test Cases\Iteration 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shu Yan\Desktop\Ulink\Test Cases\Iteration 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="1425" windowWidth="25515" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="4880" yWindow="1430" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="227">
   <si>
     <t>No</t>
   </si>
@@ -440,99 +440,20 @@
 Access directly : http://ec2-35-161-162-8.us-west-2.compute.amazonaws.com/U-Link/createaccount.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Add Screening (Type : Male and Female) </t>
-  </si>
-  <si>
-    <t>Age : 9
-Common illness:  Hand Foot Mouth Disease  
-Recommended screening:  - 
-Demographic affected: Male and Female
-Regularity : 0</t>
-  </si>
-  <si>
-    <t>Success Message shown, screening added into the table</t>
-  </si>
-  <si>
     <t xml:space="preserve">Add Screening (Type : Male) </t>
   </si>
   <si>
-    <t>Age : 20
-Common illness: Cancers
-Recommended screening:  - 
-Demographic affected: Male
-Regularity : 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Add Screening (Type : Female) </t>
   </si>
   <si>
-    <t>Age : 21
-Common illness:  Cancer
-Recommended screening:  - 
-Demographic affected: Female
-Regularity : 1 Year</t>
-  </si>
-  <si>
     <t xml:space="preserve">Add Screening (Type : Infant) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">View Screenings </t>
   </si>
   <si>
     <t xml:space="preserve">Access the URL: viewscreenings.html 
 </t>
   </si>
   <si>
-    <t>Success Message shown, screening details updated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access the URL: viewscreenings.html
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that screening - Hand Foot Mouth Disease from Test Case 7 has been updated  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Screening </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Screening updated from Test Case 7 Age : 0
-Common illness:  Hand Foot Mouth Disease  
-Recommended screening:  - 
-Demographic affected: All
-Regularity : 0
-</t>
-  </si>
-  <si>
-    <t>Redirect back to View Screening webpage, 'Hand Foot Mouth Disease' not shown in the screening table, a message 'Screening successfully deleted.' shown</t>
-  </si>
-  <si>
     <t>Add Screening : Wrong Age Group</t>
-  </si>
-  <si>
-    <t>Age : 9
-Common illness:  Fever
-Recommended screening:  - 
-Demographic affected: Infant, Female, Male
-Regularity : 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error Message Shown (Infant cannot be above 1 years old) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure that Test Case 10 is not added in to the screenings table </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Screening updated from Test Case 4 
-Age : 1
-Common illness:  Chicken Pox  
-Recommended screening:  - 
-Demographic affected: Infant
-Regularity : 1 
-</t>
-  </si>
-  <si>
-    <t>Redirect back to View Screening webpage, 'Chicken Pox' not shown in the screening table, a message 'Screening successfully deleted.' shown</t>
   </si>
   <si>
     <t>Add Screenings (Type: Men and Female)</t>
@@ -565,9 +486,6 @@
     <t>Add Screenings (Type: Infant)</t>
   </si>
   <si>
-    <t xml:space="preserve">Sort Screenings (By Starting Age) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Click on Starting Age Header to sort the age (ascending to descending order) </t>
   </si>
   <si>
@@ -580,33 +498,15 @@
     <t xml:space="preserve">Age are sorted in descending order </t>
   </si>
   <si>
-    <t xml:space="preserve">Sort Screenings (By conditionName)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Condition Name Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
     <t>Condition names are sorted in alphatical order (A - Z)</t>
   </si>
   <si>
-    <t xml:space="preserve">Sort Screenings (By screening)  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Click on Screening Header to sort the names (ascending to descending order) </t>
   </si>
   <si>
     <t>Screenings are sorted in alphatical order (A - Z)</t>
   </si>
   <si>
-    <t>Sort Screenings (By type)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Type Header to sort the names (ascending to descending order) </t>
-  </si>
-  <si>
-    <t>Type are sorted in alphatical order (A - Z)</t>
-  </si>
-  <si>
     <t>Display Client Profile</t>
   </si>
   <si>
@@ -622,46 +522,372 @@
     <t>Verify that logged in user can access the link</t>
   </si>
   <si>
-    <t xml:space="preserve">Click on the 'View Screenings' from the Screenings drop down list on the header  </t>
-  </si>
-  <si>
-    <t>Verify that logged in user can access the view screenings tab</t>
-  </si>
-  <si>
-    <t>Value specific validation</t>
-  </si>
-  <si>
     <t>Access add screenings page, click 'Add'</t>
   </si>
   <si>
     <t>Error message show to input empty fields</t>
   </si>
   <si>
-    <t>Access view screenings page, select Obesity screening for female and click 'Edit'
-Remove all values and click 'Update'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access view screenings page, click 'generate' </t>
-  </si>
-  <si>
     <t xml:space="preserve">Display Client's Appointment </t>
   </si>
   <si>
     <t>In appointment page, click on view appointments for Adrian Hall</t>
   </si>
   <si>
-    <t xml:space="preserve">Age : 1 month 
+    <t xml:space="preserve">Edit Screening (Type: Female) </t>
+  </si>
+  <si>
+    <t>Age : 1 month
+Common illness:  Hepatitis B
+Recommended screening:Hepatitis B-2nd Dose
+Demographic affected: Infant
+Regularity : 0</t>
+  </si>
+  <si>
+    <t>Age : 0 month
+Common illness:  Hepatitis B
+Recommended screening: Hepatitis B-1st Dose
+Demographic affected: Infant
+Regularity : 0</t>
+  </si>
+  <si>
+    <t>Search for client name Adrian Hall</t>
+  </si>
+  <si>
+    <t>Search for client name Acep Dani Nuraeni</t>
+  </si>
+  <si>
+    <t>In appointment page, click on view appointments for Acep Dani Nuraeni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MainDiagnosis: US Emb 
+Appointment: 12/10/2015 10:30
+Doctor: Francis Wong Yoke Hae
+Speciality: Surgery - Orthopaedics 
+Clinic : Orthopaedics International
+Hospital Admitted: - 
+MainDiagnosis: US Emb 
+Appointment: 13/10/2015 02:30
+Doctor: Vera Oh Boon Ngee
+Speciality: Paediatrics 
+Clinic : SBCC Baby &amp; Child Clinic Pte Ltd
+Hospital Admitted: -
+MainDiagnosis: US Emb 
+Appointment: 13/10/2015 09:30
+Doctor: Francis Fong Kee Siew
+Speciality: Surgery - Eye 
+Clinic: Eye Surgeons @ Novena
+Hospital Admitted: -
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MainDiagnosis: IndoMed
+Appointment: 01/10/2015 02:00
+Doctor: Ho Siew Hong
+Speciality: Surgery - Urology
+Clinic : S H Ho Urology And Laparoscopy Centre
+Hospital Admitted: - 
+MainDiagnosis: IndoMed 
+Appointment: 22/02/2016 02:45
+Doctor: Dede Selamat Sutedja 
+Speciality: Medicine - Gastroenterology
+Clinic : The Singapore Gastro Liver Internist Centre
+Hospital Admitted: Gleneagles Hospital
+MainDiagnosis: IndoMed
+Appointment: 23/02/2016 02:45
+Doctor: Chan Hsiang Sui
+Speciality: Surgery - General 
+Clinic: H S Chan Surgery Pte Ltd
+Hospital Admitted: Gleneagles Hospital
+MainDiagnosis: IndoMed
+Appointment: 25/10/2016 15:00
+Doctor: Dede Selamat Sutedja 
+Speciality: Medicine - Gastroenterology
+Clinic: The Singapore Gastro LIver Internist Centre
+Hospital Admitted: - 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Client Name Header to sort the names (ascending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Client Name Header to sort the names (descending order) </t>
+  </si>
+  <si>
+    <t>Click on Client Type to sort the client's type in ascending order</t>
+  </si>
+  <si>
+    <t>Clients are sorted base on Client type in ascending order (Employee - Individual)</t>
+  </si>
+  <si>
+    <t>Click on Client Type to sort the client's type in descending order</t>
+  </si>
+  <si>
+    <t>Clients are sorted base on Client type in descending order (Individual - Employee)</t>
+  </si>
+  <si>
+    <t>Click on Visa/Medical to sort client base on type ( Visa  - Medical )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clients are sorted in ascending order (Medical - Visa) </t>
+  </si>
+  <si>
+    <t>Click on Visa/Medical to sort client base on type ( Medical - Visa )</t>
+  </si>
+  <si>
+    <t>Clients are sorted in descending order (Visa - Medical)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Name: Adrian Hall
+Client Owner: Medical1
+Nationality: American
+Gender: Male
+DOB: 03/11/2001
+Age: 15
+Company: - 
+Email: Adrain Hall@hotmail.com
+Person-in-Charge: Zin
+Referred by: US Emb </t>
+  </si>
+  <si>
+    <t>Client Name: Acep Dani Nuraeni
+Client Owner: Medical1
+Nationality: Indonesian
+Gender: Male
+DOB: 15/06/1982
+Age: 34
+Company:  
+Email: Acep Dani Nuraeni @hotmail.com
+Person-in-Charge: Zin
+Referred by: IndoMed</t>
+  </si>
+  <si>
+    <t>Upload Correct File Format - Header Names are Wrong</t>
+  </si>
+  <si>
+    <t>testing0.1.xls</t>
+  </si>
+  <si>
+    <t>"Wrong File Format" shown
+Timestamp should not be updated to current time</t>
+  </si>
+  <si>
+    <t>Data not relevant or related message shown</t>
+  </si>
+  <si>
+    <t>Upload File with existing record in database</t>
+  </si>
+  <si>
+    <t>Upload testing 7 then upload testing 8</t>
+  </si>
+  <si>
+    <t>Should not have duplicated records in database</t>
+  </si>
+  <si>
+    <t>Upload File with correct headers not in sequence</t>
+  </si>
+  <si>
+    <t>Upload Testing9(sequence)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be uploaded in database accordingly. </t>
+  </si>
+  <si>
+    <t>Current Iteration: 6</t>
+  </si>
+  <si>
+    <t>View Screening Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access the URL: viewscreeningsadult.html 
+</t>
+  </si>
+  <si>
+    <t>Add Adult Screening - Value specific validation</t>
+  </si>
+  <si>
+    <t>Access add screenings adult page, click 'Add'</t>
+  </si>
+  <si>
+    <t>Access add screenings adult page.
+Age : A
+Common Illness: Test
+Screening: - 
+Gender: Female
+Regularity: - 
+ Click 'Add' Button</t>
+  </si>
+  <si>
+    <t>Error Message show to input a number for age</t>
+  </si>
+  <si>
+    <t>Access add screenings adult page.
+Age : 12
+Common Illness: Test
+Screening: - 
+Gender: [uncheck]
+Regularity: - 
+ Click 'Add' Button</t>
+  </si>
+  <si>
+    <t>Error Message show to input all field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Adult Screening (Type : Male and Female) </t>
+  </si>
+  <si>
+    <t>Age : 9 Years Old
+Common illness:  Hand Foot Mouth Disease  
+Recommended screening:  - 
+Demographic affected: Male and Female
+Regularity : 0 Year</t>
+  </si>
+  <si>
+    <t>Success Message shown, redirect to viewscreeningsadult page, screening added into the table</t>
+  </si>
+  <si>
+    <t>Age : 20 Years Old
+Common illness: Cancers
+Recommended screening:  - 
+Demographic affected: Male
+Regularity : 1 Year</t>
+  </si>
+  <si>
+    <t>Age : 21 Years Old
+Common illness:  Cancer
+Recommended screening:  - 
+Demographic affected: Female
+Regularity : 1 Year</t>
+  </si>
+  <si>
+    <t>Add Infant Screening - Value specific validation</t>
+  </si>
+  <si>
+    <t>Access add screenings page.
+Age : A
+Common Illness: Test
+Screening: - 
+Regularity: - 
+ Click 'Add' Button</t>
+  </si>
+  <si>
+    <t>Age : 1 month 
 Common illness:  Chicken Pox
-Recommended screening:  - 
+Vaccination / Screening:  - 
 Demographic affected: Infant
-Regularity : 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Screening (Type: Female) </t>
+Regularity : 1 Year</t>
+  </si>
+  <si>
+    <t>Success Message shown, redirect to viewscreenings page, screening added into the table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Screenings through URL </t>
+  </si>
+  <si>
+    <t>Access edittimelinesummary.html after login</t>
+  </si>
+  <si>
+    <t>Page should redirect to view screenings page</t>
+  </si>
+  <si>
+    <t>Edit Infant Screening - Value specific validation</t>
+  </si>
+  <si>
+    <t>Access view screenings page, select Chicken Pox
+Click 'Edit' Button
+Remove all values in all fields
+click 'Update' button</t>
+  </si>
+  <si>
+    <t>Edit Screening (Type: Infant)</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Age : 5
+      <t xml:space="preserve">Age : 1 month 
+Common illness:  Chicken Pox
+Vaccination / Screening: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Varicella</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   
+Demographic affected: Infant
+Regularity : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Success Message shown, redirect to viewscreenings page, table updated with the latest information</t>
+  </si>
+  <si>
+    <t>Edit Adult Screening - Value specific validation</t>
+  </si>
+  <si>
+    <t>Access view screenings adult page, select Hand Foot Mouth Disease for gender Female
+Click 'Edit' Button
+Remove all values in all fields
+click 'Update' button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Age : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 Years Old</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Common illness:  Hand Foot Mouth Disease  
 Recommended screening:  Body Checkup
 Demographic affected: </t>
@@ -697,164 +923,146 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Regularity : 0</t>
+      <t>Regularity : 1 Year</t>
     </r>
   </si>
   <si>
-    <t>Age : 1 month
-Common illness:  Hepatitis B
-Recommended screening:Hepatitis B-2nd Dose
+    <t>Success Message shown, redirect to viewscreeningsadult page, table updated with the latest information</t>
+  </si>
+  <si>
+    <t>Delete Screening (Adult - Female)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Screening updated from Test Case 8
+Age : 3 Years Old
+Common illness:  Hand Foot Mouth Disease  
+Recommended screening:  Body Checkup 
+Demographic affected: Female
+Regularity : 1 Year
+</t>
+  </si>
+  <si>
+    <t>Redirect back to viewscreeningsadult Page, 'Hand Foot Mouth Disease' not shown in the screening table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Screening (Infant) </t>
+  </si>
+  <si>
+    <t>Delete Screening updated from Test Case 7  
+Age : 1 Month
+Common illness: Chicken Pox
+Vaccination / Screening:  Varicella 
+Demographic affected: Infant
+Regularity : -</t>
+  </si>
+  <si>
+    <t>Redirect back to View Screening webpage, 'Chicken Pox' not shown in the screening table</t>
+  </si>
+  <si>
+    <t>Age : 25 Months 
+Common illness:  Fever
+Vaccination / Screening:  - 
 Demographic affected: Infant
 Regularity : 0</t>
   </si>
   <si>
-    <t>Age : 0 month
-Common illness:  Hepatitis B
-Recommended screening: Hepatitis B-1st Dose
-Demographic affected: Infant
-Regularity : 0</t>
-  </si>
-  <si>
-    <t>Search for client name Adrian Hall</t>
-  </si>
-  <si>
-    <t>Search for client name Acep Dani Nuraeni</t>
-  </si>
-  <si>
-    <t>In appointment page, click on view appointments for Acep Dani Nuraeni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MainDiagnosis: US Emb 
-Appointment: 12/10/2015 10:30
-Doctor: Francis Wong Yoke Hae
-Speciality: Surgery - Orthopaedics 
-Clinic : Orthopaedics International
-Hospital Admitted: - 
-MainDiagnosis: US Emb 
-Appointment: 13/10/2015 02:30
-Doctor: Vera Oh Boon Ngee
-Speciality: Paediatrics 
-Clinic : SBCC Baby &amp; Child Clinic Pte Ltd
-Hospital Admitted: -
-MainDiagnosis: US Emb 
-Appointment: 13/10/2015 09:30
-Doctor: Francis Fong Kee Siew
-Speciality: Surgery - Eye 
-Clinic: Eye Surgeons @ Novena
-Hospital Admitted: -
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MainDiagnosis: IndoMed
-Appointment: 01/10/2015 02:00
-Doctor: Ho Siew Hong
-Speciality: Surgery - Urology
-Clinic : S H Ho Urology And Laparoscopy Centre
-Hospital Admitted: - 
-MainDiagnosis: IndoMed 
-Appointment: 22/02/2016 02:45
-Doctor: Dede Selamat Sutedja 
-Speciality: Medicine - Gastroenterology
-Clinic : The Singapore Gastro Liver Internist Centre
-Hospital Admitted: Gleneagles Hospital
-MainDiagnosis: IndoMed
-Appointment: 23/02/2016 02:45
-Doctor: Chan Hsiang Sui
-Speciality: Surgery - General 
-Clinic: H S Chan Surgery Pte Ltd
-Hospital Admitted: Gleneagles Hospital
-MainDiagnosis: IndoMed
-Appointment: 25/10/2016 15:00
-Doctor: Dede Selamat Sutedja 
-Speciality: Medicine - Gastroenterology
-Clinic: The Singapore Gastro LIver Internist Centre
-Hospital Admitted: - 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Client Name Header to sort the names (ascending order) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Client Name Header to sort the names (descending order) </t>
-  </si>
-  <si>
-    <t>Click on Client Type to sort the client's type in ascending order</t>
-  </si>
-  <si>
-    <t>Clients are sorted base on Client type in ascending order (Employee - Individual)</t>
-  </si>
-  <si>
-    <t>Click on Client Type to sort the client's type in descending order</t>
-  </si>
-  <si>
-    <t>Clients are sorted base on Client type in descending order (Individual - Employee)</t>
-  </si>
-  <si>
-    <t>Click on Visa/Medical to sort client base on type ( Visa  - Medical )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clients are sorted in ascending order (Medical - Visa) </t>
-  </si>
-  <si>
-    <t>Click on Visa/Medical to sort client base on type ( Medical - Visa )</t>
-  </si>
-  <si>
-    <t>Clients are sorted in descending order (Visa - Medical)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Name: Adrian Hall
-Client Owner: Medical1
-Nationality: American
-Gender: Male
-DOB: 03/11/2001
-Age: 15
-Company: - 
-Email: Adrain Hall@hotmail.com
-Person-in-Charge: Zin
-Referred by: US Emb </t>
-  </si>
-  <si>
-    <t>Client Name: Acep Dani Nuraeni
-Client Owner: Medical1
-Nationality: Indonesian
-Gender: Male
-DOB: 15/06/1982
-Age: 34
-Company:  
-Email: Acep Dani Nuraeni @hotmail.com
-Person-in-Charge: Zin
-Referred by: IndoMed</t>
-  </si>
-  <si>
-    <t>Upload Correct File Format - Header Names are Wrong</t>
-  </si>
-  <si>
-    <t>testing0.1.xls</t>
-  </si>
-  <si>
-    <t>"Wrong File Format" shown
-Timestamp should not be updated to current time</t>
-  </si>
-  <si>
-    <t>Data not relevant or related message shown</t>
-  </si>
-  <si>
-    <t>Upload File with existing record in database</t>
-  </si>
-  <si>
-    <t>Upload testing 7 then upload testing 8</t>
-  </si>
-  <si>
-    <t>Should not have duplicated records in database</t>
-  </si>
-  <si>
-    <t>Upload File with correct headers not in sequence</t>
-  </si>
-  <si>
-    <t>Upload Testing9(sequence)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should be uploaded in database accordingly. </t>
+    <t xml:space="preserve">Error Message Shown (Infant cannot be above 24 Months old) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infant View - Sort Screenings (By Starting Age) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infant View - Sort Screenings by Common Illness  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Illness Name Header to sort the names (ascending to descending order) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Illness Name Header to sort the names descending to ascending order) </t>
+  </si>
+  <si>
+    <t>Condition names are sorted in alphatical order (Z - A)</t>
+  </si>
+  <si>
+    <t>Infant View - Sort Screenings (By Screening)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Screening Header to sort the names (descending to ascending order) </t>
+  </si>
+  <si>
+    <t>Screenings are sorted in alphatical order (Z - A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult View - Sort Screenings (By Starting Age) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult View - Sort Screenings By  Common Illness    </t>
+  </si>
+  <si>
+    <t>Adult View - Sort Screenings (By Screening)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult View - Filter / Sort Screening by Gender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Gender Drop Down List and select Female </t>
+  </si>
+  <si>
+    <t>Table should only display all available screenings for female only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Gender Drop Down List and select All </t>
+  </si>
+  <si>
+    <t>Table should only display all available screenings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Gender Drop Down List and select Male </t>
+  </si>
+  <si>
+    <t>Table should only display all available screenings for male only</t>
+  </si>
+  <si>
+    <t>View Patient List - Adult</t>
+  </si>
+  <si>
+    <t>Click Link to view Patients for Obesity (Gender: Male)</t>
+  </si>
+  <si>
+    <t>The Page should display all male clients who are above 9 Years Old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Link to view Patients for Breast cancer (Gender: Female) </t>
+  </si>
+  <si>
+    <t>The Page should display all female clients who are above 3 Years Old</t>
+  </si>
+  <si>
+    <t>View Patient List - Infant</t>
+  </si>
+  <si>
+    <t>Click Link to view Patients for Hepatitis B (infant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Page should display all infants with age between 0 to 24 months old </t>
+  </si>
+  <si>
+    <t>Search Adult Screenings</t>
+  </si>
+  <si>
+    <t>Search "High Blood" in the view screenings - adult search box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The table should display all screenings / Illness that contains "High Blood"  </t>
+  </si>
+  <si>
+    <t>Search Infant Screenings</t>
+  </si>
+  <si>
+    <t>Search "He" in the view screenings - adult search box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The table should display all vacincations / screenings / Illness that contains "He"  </t>
   </si>
 </sst>
 </file>
@@ -901,12 +1109,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -921,7 +1135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -955,8 +1169,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,715 +1191,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>899642</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B78076E-362F-4340-80F5-2861C6BC5F76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4540250" y="12617450"/>
-          <a:ext cx="3432345" cy="3499407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>676435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A9BCE6-A192-4E68-B4E1-B150F7F72B7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4521576" y="16427076"/>
-          <a:ext cx="2470149" cy="2077171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>899642</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{402B30F3-2885-4CA4-9E39-69CC0A7B1DD4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4540250" y="11633200"/>
-          <a:ext cx="3432345" cy="3499407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>676435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70524F09-7363-4BF6-AF22-E740D3689C0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4526058" y="15450670"/>
-          <a:ext cx="2470149" cy="2077171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>899642</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C61CB9C-2F16-471D-A1CF-CBA8E677CA72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4540250" y="11633200"/>
-          <a:ext cx="3432345" cy="3499407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>676435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D03F83F-A5D4-4BE9-9170-8A8A1F2DF843}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4526058" y="15450670"/>
-          <a:ext cx="2470149" cy="2077171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>899642</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{455F1372-DD3A-4F81-8C0D-AA00303F7A84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4540250" y="11633200"/>
-          <a:ext cx="3432345" cy="3499407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>676435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAA2F555-252A-4DD2-9FD8-784C2039E6E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4526058" y="15450670"/>
-          <a:ext cx="2470149" cy="2077171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>899642</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F3BD0A-9005-4424-83C0-F1B91E34818C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4540250" y="11633200"/>
-          <a:ext cx="3432345" cy="3499407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>676435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E8A18DF-9A8A-4684-B278-E048D22634EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4526058" y="15450670"/>
-          <a:ext cx="2470149" cy="2077171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>899642</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1EE6D7-B08C-445D-96CD-58CF7017ACD5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4540250" y="11625729"/>
-          <a:ext cx="3432345" cy="3499407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>676435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F117D52-1001-4CC5-8F56-E979578507C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4526058" y="15458141"/>
-          <a:ext cx="2470149" cy="2077171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>899642</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8315B0CE-6E5E-4266-B46F-873FF0776174}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4540250" y="11633200"/>
-          <a:ext cx="3432345" cy="3499407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>676435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0DE50C-840D-488E-B7DE-71B05BC2E5EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4526058" y="15450670"/>
-          <a:ext cx="2470149" cy="2077171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3552995</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>899642</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53108CB3-9697-4BA2-9677-1983C68560A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4540250" y="11625729"/>
-          <a:ext cx="3432345" cy="3499407"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106458</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2576607</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>676435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F319CC-360D-4A0C-BC0A-BE437B1B45F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4526058" y="15458141"/>
-          <a:ext cx="2470149" cy="2077171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1953,16 +1462,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="32.125" customWidth="1"/>
+    <col min="1" max="1" width="5.08203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.08203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="12.625" customWidth="1"/>
+    <col min="5" max="6" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="155" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2002,7 +1511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="155" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2022,7 +1531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2030,7 +1539,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2038,7 +1547,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2046,7 +1555,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2054,7 +1563,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2062,7 +1571,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2070,7 +1579,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2078,7 +1587,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2086,7 +1595,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2094,7 +1603,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2102,7 +1611,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2110,7 +1619,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2118,7 +1627,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2126,7 +1635,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2134,7 +1643,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2142,7 +1651,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2150,7 +1659,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2158,7 +1667,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2166,7 +1675,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2174,7 +1683,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2182,7 +1691,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2190,7 +1699,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2198,7 +1707,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2215,20 +1724,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="36.875" customWidth="1"/>
-    <col min="5" max="5" width="48.125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" customWidth="1"/>
+    <col min="5" max="5" width="48.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2248,7 +1757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2264,7 +1773,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2280,7 +1789,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2296,7 +1805,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2312,7 +1821,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2328,7 +1837,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2344,7 +1853,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2355,12 +1864,12 @@
         <v>61</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2376,7 +1885,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2392,7 +1901,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2408,7 +1917,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2424,48 +1933,48 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2481,16 +1990,16 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.58203125" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="39.5" customWidth="1"/>
-    <col min="4" max="4" width="37.125" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="37.08203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2510,1557 +2019,1557 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="155" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="330.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="325.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="155" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
     </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
     </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E241" s="2"/>
     </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E242" s="2"/>
     </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E243" s="2"/>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E244" s="2"/>
     </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E245" s="2"/>
     </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E246" s="2"/>
     </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E247" s="2"/>
     </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E248" s="2"/>
     </row>
   </sheetData>
@@ -4070,452 +3579,807 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="39.875" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" customWidth="1"/>
     <col min="4" max="4" width="57" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="12"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="12"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>105</v>
+    <row r="4" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
+    <row r="5" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="12"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
+    <row r="6" spans="1:9" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
+    <row r="7" spans="1:9" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
+    <row r="8" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="E8" s="14"/>
       <c r="F8" s="2"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
+    <row r="9" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="E9" s="14"/>
       <c r="F9" s="2"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
+    <row r="10" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
+    <row r="11" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+        <v>124</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
+    <row r="12" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+        <v>163</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="B14" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="B15" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="E17" s="14"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
         <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+        <v>186</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+      <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+      <c r="A22" s="14">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="14">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="14">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="14">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="14">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="D26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="14">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>151</v>
+      <c r="B27" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="14">
+        <v>26</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="14">
+        <v>27</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="14">
+        <v>28</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="14">
+        <v>29</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="14">
+        <v>30</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="14">
+        <v>31</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="14">
+        <v>32</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="14">
+        <v>33</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="14">
+        <v>34</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="14">
+        <v>35</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="14">
+        <v>36</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="14">
+        <v>37</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="14">
+        <v>38</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="14">
+        <v>39</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A42" s="14">
+        <v>40</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A43" s="14">
+        <v>41</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A44" s="14">
+        <v>42</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A45" s="14">
+        <v>43</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A46" s="14">
+        <v>44</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4527,17 +4391,17 @@
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="45.625" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="7.58203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.58203125" customWidth="1"/>
+    <col min="4" max="4" width="45.58203125" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4560,7 +4424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4578,7 +4442,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4597,7 +4461,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4619,7 +4483,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4641,7 +4505,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4663,7 +4527,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4685,7 +4549,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4707,7 +4571,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -4729,7 +4593,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -4751,7 +4615,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -4773,7 +4637,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -4795,7 +4659,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -4817,7 +4681,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -4839,7 +4703,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -4861,7 +4725,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="93" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -4883,7 +4747,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="126" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="124" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -4905,7 +4769,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -4927,7 +4791,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -4949,7 +4813,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -4971,7 +4835,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -4993,7 +4857,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -5015,7 +4879,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -5037,7 +4901,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -5059,7 +4923,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -5081,7 +4945,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -5103,7 +4967,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="62" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -5125,7 +4989,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="93" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -5147,7 +5011,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="2"/>
@@ -5159,7 +5023,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="2"/>
@@ -5171,7 +5035,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="2"/>
@@ -5183,7 +5047,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="2"/>
@@ -5195,7 +5059,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="2"/>
@@ -5207,7 +5071,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="2"/>
@@ -5219,7 +5083,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="2"/>
@@ -5231,7 +5095,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="2"/>
@@ -5243,7 +5107,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="2"/>
@@ -5255,7 +5119,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="2"/>
@@ -5267,7 +5131,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="2"/>
@@ -5279,7 +5143,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="2"/>
@@ -5291,7 +5155,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="2"/>
@@ -5303,7 +5167,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="2"/>
@@ -5315,7 +5179,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="2"/>
@@ -5327,7 +5191,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="2"/>
@@ -5339,7 +5203,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="2"/>
@@ -5351,7 +5215,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="2"/>
@@ -5363,7 +5227,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="2"/>
@@ -5375,7 +5239,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="2"/>
@@ -5387,7 +5251,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="2"/>
@@ -5399,7 +5263,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="2"/>
@@ -5411,7 +5275,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="2"/>
@@ -5423,7 +5287,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="2"/>
@@ -5435,7 +5299,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="2"/>
@@ -5447,7 +5311,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="5"/>
@@ -5458,7 +5322,7 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="5"/>
@@ -5469,7 +5333,7 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="5"/>
@@ -5480,7 +5344,7 @@
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="5"/>
@@ -5491,7 +5355,7 @@
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="5"/>
@@ -5502,7 +5366,7 @@
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="5"/>
@@ -5513,7 +5377,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="5"/>
@@ -5524,7 +5388,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="5"/>
@@ -5535,7 +5399,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="5"/>
@@ -5546,7 +5410,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="5"/>
@@ -5557,7 +5421,7 @@
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="5"/>
@@ -5568,7 +5432,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="5"/>
@@ -5579,7 +5443,7 @@
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="5"/>
@@ -5590,7 +5454,7 @@
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="5"/>
@@ -5601,7 +5465,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="5"/>
@@ -5612,7 +5476,7 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="5"/>
@@ -5623,7 +5487,7 @@
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="5"/>
@@ -5634,7 +5498,7 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="5"/>
@@ -5645,7 +5509,7 @@
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="5"/>
@@ -5656,7 +5520,7 @@
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="5"/>
@@ -5667,7 +5531,7 @@
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="5"/>
@@ -5678,7 +5542,7 @@
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="5"/>
@@ -5689,7 +5553,7 @@
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="5"/>
@@ -5700,7 +5564,7 @@
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="5"/>
@@ -5711,7 +5575,7 @@
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="5"/>
@@ -5722,7 +5586,7 @@
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="5"/>
@@ -5733,7 +5597,7 @@
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="5"/>
@@ -5744,7 +5608,7 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="5"/>
@@ -5755,7 +5619,7 @@
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="5"/>
@@ -5766,7 +5630,7 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="5"/>
@@ -5777,7 +5641,7 @@
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="5"/>
@@ -5788,7 +5652,7 @@
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="5"/>
@@ -5799,7 +5663,7 @@
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="5"/>
@@ -5810,7 +5674,7 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="5"/>
@@ -5821,7 +5685,7 @@
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="5"/>
@@ -5832,7 +5696,7 @@
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="5"/>
@@ -5843,7 +5707,7 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="5"/>
@@ -5854,7 +5718,7 @@
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="5"/>
@@ -5865,7 +5729,7 @@
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="5"/>
@@ -5876,7 +5740,7 @@
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="5"/>
@@ -5887,7 +5751,7 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="5"/>
@@ -5898,7 +5762,7 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="5"/>
@@ -5909,7 +5773,7 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="5"/>
@@ -5920,7 +5784,7 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="5"/>
@@ -5931,7 +5795,7 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="5"/>
@@ -5942,7 +5806,7 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="5"/>
@@ -5953,7 +5817,7 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="5"/>
@@ -5964,7 +5828,7 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="5"/>
@@ -5975,7 +5839,7 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="5"/>
@@ -5986,7 +5850,7 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="5"/>
@@ -5997,7 +5861,7 @@
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="5"/>
@@ -6008,7 +5872,7 @@
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="5"/>
@@ -6019,7 +5883,7 @@
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="5"/>
@@ -6030,7 +5894,7 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="5"/>
@@ -6041,7 +5905,7 @@
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="5"/>
@@ -6052,7 +5916,7 @@
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="5"/>
@@ -6063,7 +5927,7 @@
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="5"/>
@@ -6074,7 +5938,7 @@
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="5"/>
@@ -6085,7 +5949,7 @@
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="5"/>
@@ -6096,7 +5960,7 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="5"/>
@@ -6107,7 +5971,7 @@
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="5"/>
@@ -6118,7 +5982,7 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="5"/>
@@ -6129,7 +5993,7 @@
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="5"/>
@@ -6140,7 +6004,7 @@
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="5"/>
@@ -6151,7 +6015,7 @@
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="5"/>
@@ -6162,7 +6026,7 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="5"/>
@@ -6173,7 +6037,7 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="5"/>
@@ -6184,7 +6048,7 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="5"/>
@@ -6195,7 +6059,7 @@
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="5"/>
@@ -6206,7 +6070,7 @@
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="5"/>
@@ -6217,7 +6081,7 @@
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="5"/>
@@ -6228,7 +6092,7 @@
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="5"/>
@@ -6239,7 +6103,7 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="5"/>
@@ -6250,7 +6114,7 @@
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="5"/>
@@ -6261,7 +6125,7 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="5"/>
@@ -6272,7 +6136,7 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="5"/>
@@ -6283,7 +6147,7 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="5"/>
@@ -6294,7 +6158,7 @@
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="5"/>
@@ -6305,7 +6169,7 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>

--- a/Test Cases/Iteration 7/Iteration 7 Test Cases.xlsx
+++ b/Test Cases/Iteration 7/Iteration 7 Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1430" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="4880" yWindow="1430" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="6-Screenings" sheetId="23" r:id="rId4"/>
     <sheet name="3-Login &amp; Account Management" sheetId="21" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="231">
   <si>
     <t>No</t>
   </si>
@@ -1063,6 +1063,18 @@
   </si>
   <si>
     <t xml:space="preserve">The table should display all vacincations / screenings / Illness that contains "He"  </t>
+  </si>
+  <si>
+    <t>Current Iteration: 7</t>
+  </si>
+  <si>
+    <t>Search Clients</t>
+  </si>
+  <si>
+    <t>Search "Ali" in the Client List search box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The table should display all clients that contains "Ali"  </t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1986,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2000,187 +2012,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5">
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" s="1">
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="155" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="325.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="155" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="325.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -3581,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
